--- a/opus/Lattice.xlsx
+++ b/opus/Lattice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1960" windowWidth="23060" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="4060" yWindow="720" windowWidth="23060" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/opus/Lattice.xlsx
+++ b/opus/Lattice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="720" windowWidth="23060" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="520" windowWidth="23060" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>null</t>
   </si>
@@ -397,10 +397,97 @@
     <t>a + b</t>
   </si>
   <si>
-    <t>a + b, c</t>
-  </si>
-  <si>
     <t>a+ b + c, d</t>
+  </si>
+  <si>
+    <t>ab, c</t>
+  </si>
+  <si>
+    <t>a + c</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>dbe</t>
+  </si>
+  <si>
+    <t>dba</t>
+  </si>
+  <si>
+    <t>dbc</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
+    <t>dac</t>
+  </si>
+  <si>
+    <t>bea</t>
+  </si>
+  <si>
+    <t>bec</t>
+  </si>
+  <si>
+    <t>eac</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>bce</t>
+  </si>
+  <si>
+    <t>bde</t>
+  </si>
+  <si>
+    <t>bcdY</t>
+  </si>
+  <si>
+    <t>bceY</t>
+  </si>
+  <si>
+    <t>bdeY</t>
+  </si>
+  <si>
+    <t>dbea</t>
+  </si>
+  <si>
+    <t>dbec</t>
+  </si>
+  <si>
+    <t>deac</t>
+  </si>
+  <si>
+    <t>beac</t>
+  </si>
+  <si>
+    <t>bcde</t>
+  </si>
+  <si>
+    <t>bcdeY</t>
+  </si>
+  <si>
+    <t>dbeac</t>
   </si>
 </sst>
 </file>
@@ -468,7 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,18 +855,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="L11" sqref="K1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -803,6 +904,12 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
       <c r="M3">
         <v>2</v>
       </c>
@@ -811,35 +918,41 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -849,23 +962,39 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -875,15 +1004,24 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="M6">
         <v>5</v>
       </c>
@@ -892,9 +1030,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="M7">
         <v>6</v>
       </c>
@@ -903,25 +1050,43 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
       <c r="M10">
         <v>9</v>
       </c>
@@ -930,20 +1095,26 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -987,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1009,6 +1180,15 @@
       <c r="F13" t="s">
         <v>46</v>
       </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
       <c r="M13">
         <v>12</v>
       </c>
@@ -1026,6 +1206,9 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
       <c r="M14">
         <v>13</v>
       </c>
@@ -1049,17 +1232,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1067,7 +1250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1075,14 +1258,116 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
